--- a/Excel/TI/Mon_TI_2024_04_14.xlsx
+++ b/Excel/TI/Mon_TI_2024_04_14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ49"/>
+  <dimension ref="A1:AJ50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -618,65 +618,61 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Joel Embiid</t>
+          <t>Zion Williamson</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>50.4</v>
+        <v>40.2</v>
       </c>
       <c r="G2" t="n">
-        <v>60.3</v>
+        <v>42.1</v>
       </c>
       <c r="H2" t="n">
-        <v>59.9</v>
+        <v>38</v>
       </c>
       <c r="I2" t="n">
+        <v>14</v>
+      </c>
+      <c r="J2" t="n">
         <v>2</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="N2" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="O2" t="n">
-        <v>41</v>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>35</v>
+      </c>
+      <c r="P2" t="n">
+        <v>55</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R2" t="n">
+        <v>19</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
@@ -684,7 +680,7 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>3.4</v>
+        <v>-0.3</v>
       </c>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
@@ -695,7 +691,7 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -704,27 +700,23 @@
         </is>
       </c>
       <c r="Z2" t="n">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AB2" t="n">
+        <v>44</v>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AD2" t="n">
+        <v>15</v>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
@@ -760,63 +752,59 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Giannis Antetokounmpo</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Questionable</t>
-        </is>
-      </c>
+          <t>Deandre Ayton</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>56.4</v>
+        <v>45.8</v>
       </c>
       <c r="G3" t="n">
-        <v>54.7</v>
+        <v>41.7</v>
       </c>
       <c r="H3" t="n">
-        <v>54.4</v>
+        <v>32.7</v>
       </c>
       <c r="I3" t="n">
         <v>11</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N3" t="n">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="O3" t="n">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="P3" t="n">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="Q3" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="R3" t="n">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -824,7 +812,7 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>3.6</v>
+        <v>-0.8</v>
       </c>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
@@ -835,24 +823,26 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="Z3" t="n">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AB3" t="n">
-        <v>57</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
@@ -898,87 +888,89 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nikola Jokic</t>
+          <t>Jayson Tatum</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>57.4</v>
+        <v>31.2</v>
       </c>
       <c r="G4" t="n">
-        <v>54.5</v>
+        <v>39.3</v>
       </c>
       <c r="H4" t="n">
-        <v>52.6</v>
+        <v>40.3</v>
       </c>
       <c r="I4" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="N4" t="n">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="O4" t="n">
-        <v>67</v>
-      </c>
-      <c r="P4" t="n">
-        <v>63</v>
+        <v>30</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="Q4" t="n">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="R4" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>-0.8</v>
+        <v>-0.7</v>
       </c>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="Z4" t="n">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
@@ -986,7 +978,7 @@
         </is>
       </c>
       <c r="AB4" t="n">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
@@ -994,7 +986,7 @@
         </is>
       </c>
       <c r="AD4" t="n">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
@@ -1030,103 +1022,109 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LeBron James</t>
+          <t>Victor Wembanyama</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>47.2</v>
+        <v>44.2</v>
       </c>
       <c r="G5" t="n">
-        <v>45.9</v>
+        <v>39.1</v>
       </c>
       <c r="H5" t="n">
-        <v>42.3</v>
+        <v>36.9</v>
       </c>
       <c r="I5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M5" t="n">
-        <v>8</v>
-      </c>
-      <c r="N5" t="n">
-        <v>44</v>
+        <v>6</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="O5" t="n">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="P5" t="n">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="Q5" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="R5" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="Z5" t="n">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AB5" t="n">
-        <v>49</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AD5" t="n">
-        <v>61</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
@@ -1162,63 +1160,59 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Zion Williamson</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Questionable</t>
-        </is>
-      </c>
+          <t>Anthony Edwards</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G6" t="n">
-        <v>42.2</v>
+        <v>36.9</v>
       </c>
       <c r="H6" t="n">
-        <v>37.6</v>
+        <v>36.5</v>
       </c>
       <c r="I6" t="n">
         <v>14</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M6" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="N6" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="O6" t="n">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="P6" t="n">
         <v>36</v>
       </c>
       <c r="Q6" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="R6" t="n">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -1226,7 +1220,7 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
@@ -1237,7 +1231,7 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -1246,23 +1240,25 @@
         </is>
       </c>
       <c r="Z6" t="n">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AB6" t="n">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AD6" t="n">
-        <v>15</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
@@ -1298,59 +1294,59 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Jayson Tatum</t>
+          <t>Rudy Gobert</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>43.8</v>
+        <v>33.6</v>
       </c>
       <c r="G7" t="n">
-        <v>41.6</v>
+        <v>34.9</v>
       </c>
       <c r="H7" t="n">
-        <v>40.9</v>
+        <v>33</v>
       </c>
       <c r="I7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M7" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N7" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="O7" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="P7" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="Q7" t="n">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="R7" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1358,7 +1354,7 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>-0.3</v>
+        <v>1</v>
       </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
@@ -1369,7 +1365,7 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
@@ -1378,23 +1374,25 @@
         </is>
       </c>
       <c r="Z7" t="n">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AB7" t="n">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AD7" t="n">
-        <v>47</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
@@ -1430,12 +1428,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DeMar DeRozan</t>
+          <t>Tyrese Maxey</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -1446,81 +1444,83 @@
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>40.2</v>
+        <v>37.6</v>
       </c>
       <c r="G8" t="n">
-        <v>40.6</v>
+        <v>34.3</v>
       </c>
       <c r="H8" t="n">
-        <v>36.9</v>
+        <v>35.5</v>
       </c>
       <c r="I8" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J8" t="n">
+        <v>3</v>
+      </c>
+      <c r="K8" t="n">
         <v>1</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>3</v>
       </c>
-      <c r="L8" t="n">
-        <v>2</v>
-      </c>
       <c r="M8" t="n">
-        <v>8</v>
-      </c>
-      <c r="N8" t="n">
-        <v>41</v>
+        <v>5</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="O8" t="n">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="P8" t="n">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="Q8" t="n">
-        <v>40</v>
-      </c>
-      <c r="R8" t="n">
-        <v>37</v>
+        <v>60</v>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="Z8" t="n">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AB8" t="n">
+        <v>36</v>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
@@ -1566,71 +1566,75 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Deandre Ayton</t>
+          <t>Trae Young</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>32.8</v>
+        <v>22.4</v>
       </c>
       <c r="G9" t="n">
-        <v>39.5</v>
+        <v>33.3</v>
       </c>
       <c r="H9" t="n">
-        <v>31.5</v>
+        <v>37.5</v>
       </c>
       <c r="I9" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
         <v>1</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>34</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
         <v>1</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2</v>
-      </c>
-      <c r="M9" t="n">
-        <v>6</v>
-      </c>
-      <c r="N9" t="n">
-        <v>41</v>
-      </c>
-      <c r="O9" t="n">
-        <v>35</v>
-      </c>
-      <c r="P9" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="T9" t="n">
-        <v>-1</v>
       </c>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
@@ -1641,36 +1645,32 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="Z9" t="n">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AB9" t="n">
+        <v>4</v>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AD9" t="n">
+        <v>64</v>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
@@ -1706,12 +1706,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Rudy Gobert</t>
+          <t>Evan Mobley</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -1722,43 +1722,43 @@
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>35.2</v>
+        <v>30.2</v>
       </c>
       <c r="G10" t="n">
-        <v>34.3</v>
+        <v>32</v>
       </c>
       <c r="H10" t="n">
-        <v>32.9</v>
+        <v>32.1</v>
       </c>
       <c r="I10" t="n">
         <v>10</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N10" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O10" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P10" t="n">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="Q10" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
@@ -1766,7 +1766,7 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>0.7</v>
+        <v>-1.2</v>
       </c>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
@@ -1777,7 +1777,7 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
@@ -1786,17 +1786,15 @@
         </is>
       </c>
       <c r="Z10" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AB10" t="n">
+        <v>33</v>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
@@ -1842,78 +1840,78 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Anthony Edwards</t>
+          <t>Deni Avdija</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>26</v>
+        <v>33.2</v>
       </c>
       <c r="G11" t="n">
-        <v>34.1</v>
+        <v>31.9</v>
       </c>
       <c r="H11" t="n">
-        <v>36.2</v>
+        <v>25.9</v>
       </c>
       <c r="I11" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
         <v>2</v>
       </c>
-      <c r="K11" t="n">
+      <c r="L11" t="n">
+        <v>5</v>
+      </c>
+      <c r="M11" t="n">
         <v>3</v>
       </c>
-      <c r="L11" t="n">
-        <v>4</v>
-      </c>
-      <c r="M11" t="n">
-        <v>5</v>
-      </c>
       <c r="N11" t="n">
+        <v>25</v>
+      </c>
+      <c r="O11" t="n">
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>10</v>
+      </c>
+      <c r="R11" t="n">
         <v>35</v>
       </c>
-      <c r="O11" t="n">
-        <v>27</v>
-      </c>
-      <c r="P11" t="n">
-        <v>28</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>32</v>
-      </c>
-      <c r="R11" t="n">
-        <v>8</v>
-      </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
@@ -1922,17 +1920,15 @@
         </is>
       </c>
       <c r="Z11" t="n">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AB11" t="n">
+        <v>19</v>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
@@ -1978,63 +1974,59 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Donovan Mitchell</t>
+          <t>Jimmy Butler</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>18.6</v>
+        <v>35.6</v>
       </c>
       <c r="G12" t="n">
-        <v>33.7</v>
+        <v>31.7</v>
       </c>
       <c r="H12" t="n">
-        <v>37.9</v>
+        <v>36.2</v>
       </c>
       <c r="I12" t="n">
+        <v>12</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
         <v>5</v>
       </c>
-      <c r="J12" t="n">
-        <v>4</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N12" t="n">
-        <v>34</v>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>19</v>
+      </c>
+      <c r="O12" t="n">
+        <v>48</v>
       </c>
       <c r="P12" t="n">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="Q12" t="n">
-        <v>17</v>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>31</v>
+      </c>
+      <c r="R12" t="n">
+        <v>28</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -2042,7 +2034,7 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>4.9</v>
+        <v>1.3</v>
       </c>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
@@ -2053,28 +2045,24 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="Z12" t="n">
+        <v>31</v>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AB12" t="n">
+        <v>32</v>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
@@ -2120,59 +2108,59 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Kristaps Porzingis</t>
+          <t>Paolo Banchero</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>37</v>
+        <v>36.2</v>
       </c>
       <c r="G13" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="H13" t="n">
         <v>33.3</v>
       </c>
-      <c r="H13" t="n">
-        <v>33.4</v>
-      </c>
       <c r="I13" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K13" t="n">
+        <v>4</v>
+      </c>
+      <c r="L13" t="n">
+        <v>5</v>
+      </c>
+      <c r="M13" t="n">
         <v>3</v>
       </c>
-      <c r="L13" t="n">
-        <v>4</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
       <c r="N13" t="n">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="O13" t="n">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="P13" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q13" t="n">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="R13" t="n">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -2180,7 +2168,7 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>0.6</v>
+        <v>-0.9</v>
       </c>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
@@ -2191,16 +2179,16 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="Z13" t="n">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
@@ -2208,17 +2196,15 @@
         </is>
       </c>
       <c r="AB13" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AD13" t="n">
+        <v>41</v>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
@@ -2259,54 +2245,58 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Evan Mobley</t>
+          <t>Donovan Mitchell</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>37.8</v>
+        <v>24.8</v>
       </c>
       <c r="G14" t="n">
-        <v>33.1</v>
+        <v>31.3</v>
       </c>
       <c r="H14" t="n">
-        <v>32.7</v>
+        <v>37.5</v>
       </c>
       <c r="I14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J14" t="n">
+        <v>4</v>
+      </c>
+      <c r="K14" t="n">
         <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2</v>
       </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N14" t="n">
-        <v>40</v>
-      </c>
-      <c r="O14" t="n">
-        <v>41</v>
+        <v>48</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="P14" t="n">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="Q14" t="n">
-        <v>43</v>
-      </c>
-      <c r="R14" t="n">
-        <v>24</v>
+        <v>34</v>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -2314,7 +2304,7 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>-1.7</v>
+        <v>5.5</v>
       </c>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
@@ -2330,19 +2320,23 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="Z14" t="n">
-        <v>24</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AB14" t="n">
-        <v>33</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
@@ -2388,93 +2382,91 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Jimmy Butler</t>
+          <t>Nikola Vucevic</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
-        <v>28</v>
+        <v>29.2</v>
       </c>
       <c r="G15" t="n">
-        <v>32.5</v>
+        <v>30.6</v>
       </c>
       <c r="H15" t="n">
-        <v>36.1</v>
+        <v>30.4</v>
       </c>
       <c r="I15" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K15" t="n">
+        <v>2</v>
+      </c>
+      <c r="L15" t="n">
         <v>7</v>
       </c>
-      <c r="L15" t="n">
+      <c r="M15" t="n">
         <v>3</v>
       </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
       <c r="N15" t="n">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="O15" t="n">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="P15" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q15" t="n">
         <v>32</v>
       </c>
-      <c r="Q15" t="n">
-        <v>23</v>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R15" t="n">
+        <v>19</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="Z15" t="n">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AB15" t="n">
@@ -2524,12 +2516,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Tyrese Haliburton</t>
+          <t>Stephen Curry</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -2540,13 +2532,13 @@
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
-        <v>34</v>
+        <v>36.2</v>
       </c>
       <c r="G16" t="n">
-        <v>32.1</v>
+        <v>30.6</v>
       </c>
       <c r="H16" t="n">
-        <v>34.5</v>
+        <v>33.8</v>
       </c>
       <c r="I16" t="n">
         <v>14</v>
@@ -2555,28 +2547,30 @@
         <v>2</v>
       </c>
       <c r="K16" t="n">
+        <v>5</v>
+      </c>
+      <c r="L16" t="n">
         <v>2</v>
       </c>
-      <c r="L16" t="n">
-        <v>8</v>
-      </c>
       <c r="M16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N16" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="O16" t="n">
-        <v>55</v>
-      </c>
-      <c r="P16" t="n">
-        <v>38</v>
+        <v>53</v>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="Q16" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="R16" t="n">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -2584,7 +2578,7 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>-0.7</v>
+        <v>0.5</v>
       </c>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
@@ -2595,16 +2589,16 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="Z16" t="n">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
@@ -2612,7 +2606,7 @@
         </is>
       </c>
       <c r="AB16" t="n">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
@@ -2674,46 +2668,42 @@
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
-        <v>35</v>
+        <v>36.4</v>
       </c>
       <c r="G17" t="n">
-        <v>31.6</v>
+        <v>30.4</v>
       </c>
       <c r="H17" t="n">
-        <v>27.8</v>
+        <v>28</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" t="n">
+        <v>2</v>
+      </c>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
-      <c r="M17" t="n">
-        <v>2</v>
-      </c>
       <c r="N17" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
       <c r="O17" t="n">
-        <v>46</v>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>28</v>
+      </c>
+      <c r="P17" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>36</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -2726,7 +2716,7 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>-0.7</v>
+        <v>-0.6</v>
       </c>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
@@ -2800,12 +2790,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Nikola Vucevic</t>
+          <t>Jalen Duren</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -2816,43 +2806,45 @@
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
-        <v>28.4</v>
+        <v>23</v>
       </c>
       <c r="G18" t="n">
-        <v>31.4</v>
+        <v>29.3</v>
       </c>
       <c r="H18" t="n">
-        <v>30.3</v>
+        <v>30.9</v>
       </c>
       <c r="I18" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J18" t="n">
+        <v>3</v>
+      </c>
+      <c r="K18" t="n">
+        <v>4</v>
+      </c>
+      <c r="L18" t="n">
         <v>2</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3</v>
-      </c>
-      <c r="L18" t="n">
-        <v>7</v>
       </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="O18" t="n">
-        <v>31</v>
-      </c>
-      <c r="P18" t="n">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="Q18" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="R18" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2860,7 +2852,7 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>1.7</v>
+        <v>-0.1</v>
       </c>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
@@ -2871,18 +2863,16 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="Z18" t="n">
+        <v>39</v>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
@@ -2938,87 +2928,87 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Paolo Banchero</t>
+          <t>D'Angelo Russell</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>24.8</v>
+        <v>26</v>
       </c>
       <c r="G19" t="n">
-        <v>30.4</v>
+        <v>28.7</v>
       </c>
       <c r="H19" t="n">
-        <v>33.2</v>
+        <v>26.2</v>
       </c>
       <c r="I19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J19" t="n">
         <v>3</v>
       </c>
       <c r="K19" t="n">
+        <v>4</v>
+      </c>
+      <c r="L19" t="n">
         <v>3</v>
       </c>
-      <c r="L19" t="n">
-        <v>4</v>
-      </c>
       <c r="M19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="O19" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="P19" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="Q19" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="R19" t="n">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>-0.9</v>
+        <v>-1.6</v>
       </c>
       <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr"/>
       <c r="W19" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="Z19" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
@@ -3026,7 +3016,7 @@
         </is>
       </c>
       <c r="AB19" t="n">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
@@ -3072,12 +3062,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Jalen Johnson</t>
+          <t>Miles Bridges</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -3088,42 +3078,40 @@
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
-        <v>34.6</v>
+        <v>30.4</v>
       </c>
       <c r="G20" t="n">
-        <v>29.9</v>
+        <v>28.5</v>
       </c>
       <c r="H20" t="n">
-        <v>29.2</v>
+        <v>30.1</v>
       </c>
       <c r="I20" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M20" t="n">
         <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O20" t="n">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="P20" t="n">
-        <v>12</v>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>20</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>33</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -3136,7 +3124,7 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>-1.8</v>
+        <v>-3.1</v>
       </c>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
@@ -3147,7 +3135,7 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
@@ -3164,15 +3152,17 @@
         </is>
       </c>
       <c r="AB20" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AD20" t="n">
-        <v>35</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AE20" t="inlineStr">
         <is>
@@ -3208,12 +3198,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Deni Avdija</t>
+          <t>Rui Hachimura</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -3224,43 +3214,43 @@
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
-        <v>28.4</v>
+        <v>28</v>
       </c>
       <c r="G21" t="n">
-        <v>29</v>
+        <v>28.3</v>
       </c>
       <c r="H21" t="n">
-        <v>25.3</v>
+        <v>20.4</v>
       </c>
       <c r="I21" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J21" t="n">
+        <v>3</v>
+      </c>
+      <c r="K21" t="n">
+        <v>4</v>
+      </c>
+      <c r="L21" t="n">
+        <v>4</v>
+      </c>
+      <c r="M21" t="n">
         <v>2</v>
       </c>
-      <c r="K21" t="n">
-        <v>2</v>
-      </c>
-      <c r="L21" t="n">
-        <v>6</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
       <c r="N21" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="O21" t="n">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="P21" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="Q21" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R21" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -3268,7 +3258,7 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>-0.1</v>
+        <v>2.3</v>
       </c>
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
@@ -3279,34 +3269,32 @@
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="Z21" t="n">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AB21" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AD21" t="n">
+        <v>15</v>
       </c>
       <c r="AE21" t="inlineStr">
         <is>
@@ -3342,12 +3330,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Miles Bridges</t>
+          <t>Jonathan Kuminga</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -3358,64 +3346,66 @@
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>31.4</v>
+        <v>27.6</v>
       </c>
       <c r="G22" t="n">
-        <v>28.7</v>
+        <v>28.2</v>
       </c>
       <c r="H22" t="n">
-        <v>30.2</v>
+        <v>24.8</v>
       </c>
       <c r="I22" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J22" t="n">
+        <v>3</v>
+      </c>
+      <c r="K22" t="n">
         <v>1</v>
       </c>
-      <c r="K22" t="n">
-        <v>6</v>
-      </c>
       <c r="L22" t="n">
+        <v>3</v>
+      </c>
+      <c r="M22" t="n">
         <v>2</v>
       </c>
-      <c r="M22" t="n">
-        <v>4</v>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="N22" t="n">
+        <v>30</v>
       </c>
       <c r="O22" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="P22" t="n">
-        <v>49</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>29</v>
-      </c>
-      <c r="R22" t="n">
-        <v>24</v>
+        <v>43</v>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>-3</v>
+        <v>0.5</v>
       </c>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
@@ -3424,7 +3414,7 @@
         </is>
       </c>
       <c r="Z22" t="n">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
@@ -3432,17 +3422,15 @@
         </is>
       </c>
       <c r="AB22" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AD22" t="n">
+        <v>17</v>
       </c>
       <c r="AE22" t="inlineStr">
         <is>
@@ -3478,61 +3466,61 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Khris Middleton</t>
+          <t>Amen Thompson</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="n">
-        <v>25.4</v>
+        <v>22</v>
       </c>
       <c r="G23" t="n">
-        <v>28.3</v>
+        <v>28</v>
       </c>
       <c r="H23" t="n">
-        <v>24.1</v>
+        <v>19.1</v>
       </c>
       <c r="I23" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M23" t="n">
-        <v>2</v>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="N23" t="n">
+        <v>31</v>
       </c>
       <c r="O23" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="P23" t="n">
-        <v>44</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="R23" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -3540,7 +3528,7 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>-0.3</v>
+        <v>1.7</v>
       </c>
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
@@ -3551,7 +3539,7 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
@@ -3560,15 +3548,17 @@
         </is>
       </c>
       <c r="Z23" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AB23" t="n">
-        <v>17</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
@@ -3614,61 +3604,59 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Jalen Duren</t>
+          <t>Bradley Beal</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="n">
-        <v>23.6</v>
+        <v>33.4</v>
       </c>
       <c r="G24" t="n">
-        <v>28.2</v>
+        <v>27.8</v>
       </c>
       <c r="H24" t="n">
-        <v>30.7</v>
+        <v>27</v>
       </c>
       <c r="I24" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J24" t="n">
         <v>4</v>
       </c>
       <c r="K24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M24" t="n">
         <v>2</v>
       </c>
       <c r="N24" t="n">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="O24" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="P24" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="Q24" t="n">
-        <v>27</v>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>21</v>
+      </c>
+      <c r="R24" t="n">
+        <v>17</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -3676,7 +3664,7 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
@@ -3687,7 +3675,7 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
@@ -3696,7 +3684,7 @@
         </is>
       </c>
       <c r="Z24" t="n">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
@@ -3752,63 +3740,61 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Amen Thompson</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Day-To-Day</t>
-        </is>
-      </c>
+          <t>Nic Claxton</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="n">
-        <v>28.2</v>
+        <v>25</v>
       </c>
       <c r="G25" t="n">
-        <v>27.7</v>
+        <v>26.9</v>
       </c>
       <c r="H25" t="n">
-        <v>18.8</v>
+        <v>27.9</v>
       </c>
       <c r="I25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K25" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N25" t="n">
-        <v>12</v>
-      </c>
-      <c r="O25" t="n">
-        <v>23</v>
+        <v>36</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="P25" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q25" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="R25" t="n">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -3816,7 +3802,7 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>1.9</v>
+        <v>0.2</v>
       </c>
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
@@ -3827,7 +3813,7 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
@@ -3836,27 +3822,23 @@
         </is>
       </c>
       <c r="Z25" t="n">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AB25" t="n">
+        <v>40</v>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AD25" t="n">
+        <v>20</v>
       </c>
       <c r="AE25" t="inlineStr">
         <is>
@@ -3892,87 +3874,91 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Terry Rozier</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
+          <t>Michael Porter Jr.</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Probable</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="G26" t="n">
-        <v>27.4</v>
+        <v>26.6</v>
       </c>
       <c r="H26" t="n">
-        <v>28.2</v>
+        <v>24.6</v>
       </c>
       <c r="I26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K26" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L26" t="n">
         <v>2</v>
       </c>
       <c r="M26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N26" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="O26" t="n">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="P26" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="Q26" t="n">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="R26" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T26" t="n">
-        <v>-2.2</v>
+        <v>-1.6</v>
       </c>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="Z26" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
@@ -3980,17 +3966,15 @@
         </is>
       </c>
       <c r="AB26" t="n">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AD26" t="n">
+        <v>23</v>
       </c>
       <c r="AE26" t="inlineStr">
         <is>
@@ -4026,65 +4010,61 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Tobias Harris</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Day-To-Day</t>
-        </is>
-      </c>
+          <t>Tyler Herro</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G27" t="n">
+        <v>26</v>
+      </c>
+      <c r="H27" t="n">
         <v>27.3</v>
       </c>
-      <c r="H27" t="n">
-        <v>27.8</v>
-      </c>
       <c r="I27" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L27" t="n">
         <v>3</v>
       </c>
       <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>33</v>
       </c>
       <c r="O27" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="P27" t="n">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="Q27" t="n">
-        <v>31</v>
-      </c>
-      <c r="R27" t="n">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -4092,7 +4072,7 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
@@ -4103,7 +4083,7 @@
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
@@ -4112,15 +4092,17 @@
         </is>
       </c>
       <c r="Z27" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AB27" t="n">
-        <v>11</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
@@ -4166,67 +4148,67 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Stephen Curry</t>
+          <t>Chet Holmgren</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>31.6</v>
+        <v>23.4</v>
       </c>
       <c r="G28" t="n">
-        <v>27.2</v>
+        <v>25.9</v>
       </c>
       <c r="H28" t="n">
-        <v>33.6</v>
+        <v>29.7</v>
       </c>
       <c r="I28" t="n">
+        <v>15</v>
+      </c>
+      <c r="J28" t="n">
+        <v>5</v>
+      </c>
+      <c r="K28" t="n">
+        <v>3</v>
+      </c>
+      <c r="L28" t="n">
+        <v>5</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="n">
+        <v>18</v>
+      </c>
+      <c r="O28" t="n">
+        <v>30</v>
+      </c>
+      <c r="P28" t="n">
+        <v>37</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>20</v>
+      </c>
+      <c r="R28" t="n">
         <v>12</v>
       </c>
-      <c r="J28" t="n">
-        <v>3</v>
-      </c>
-      <c r="K28" t="n">
-        <v>4</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="n">
-        <v>4</v>
-      </c>
-      <c r="N28" t="n">
-        <v>49</v>
-      </c>
-      <c r="O28" t="n">
-        <v>19</v>
-      </c>
-      <c r="P28" t="n">
-        <v>40</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>27</v>
-      </c>
-      <c r="R28" t="n">
-        <v>23</v>
-      </c>
       <c r="S28" t="inlineStr">
         <is>
           <t>vs</t>
         </is>
       </c>
       <c r="T28" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr"/>
@@ -4237,16 +4219,16 @@
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="Z28" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
@@ -4254,17 +4236,15 @@
         </is>
       </c>
       <c r="AB28" t="n">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AD28" t="n">
+        <v>25</v>
       </c>
       <c r="AE28" t="inlineStr">
         <is>
@@ -4300,59 +4280,59 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Michael Porter Jr.</t>
+          <t>Austin Reaves</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="n">
-        <v>22.4</v>
+        <v>18.4</v>
       </c>
       <c r="G29" t="n">
-        <v>26.5</v>
+        <v>25.6</v>
       </c>
       <c r="H29" t="n">
-        <v>24.6</v>
+        <v>25.4</v>
       </c>
       <c r="I29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N29" t="n">
+        <v>38</v>
+      </c>
+      <c r="O29" t="n">
+        <v>8</v>
+      </c>
+      <c r="P29" t="n">
         <v>11</v>
       </c>
-      <c r="O29" t="n">
-        <v>28</v>
-      </c>
-      <c r="P29" t="n">
-        <v>24</v>
-      </c>
       <c r="Q29" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="R29" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -4360,7 +4340,7 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>-1.4</v>
+        <v>-0.6</v>
       </c>
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr"/>
@@ -4371,7 +4351,7 @@
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
@@ -4380,23 +4360,23 @@
         </is>
       </c>
       <c r="Z29" t="n">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AB29" t="n">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AD29" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="AE29" t="inlineStr">
         <is>
@@ -4432,12 +4412,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Rui Hachimura</t>
+          <t>Tobias Harris</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -4448,25 +4428,25 @@
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="n">
-        <v>34.6</v>
+        <v>31.6</v>
       </c>
       <c r="G30" t="n">
-        <v>26.4</v>
+        <v>25.5</v>
       </c>
       <c r="H30" t="n">
-        <v>20.1</v>
+        <v>27.8</v>
       </c>
       <c r="I30" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K30" t="n">
+        <v>4</v>
+      </c>
+      <c r="L30" t="n">
         <v>3</v>
-      </c>
-      <c r="K30" t="n">
-        <v>5</v>
-      </c>
-      <c r="L30" t="n">
-        <v>4</v>
       </c>
       <c r="M30" t="n">
         <v>1</v>
@@ -4474,45 +4454,51 @@
       <c r="N30" t="n">
         <v>31</v>
       </c>
-      <c r="O30" t="n">
-        <v>26</v>
-      </c>
-      <c r="P30" t="n">
-        <v>39</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>16</v>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="R30" t="n">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>2.6</v>
+        <v>0.9</v>
       </c>
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="Z30" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
@@ -4520,15 +4506,17 @@
         </is>
       </c>
       <c r="AB30" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AD30" t="n">
-        <v>15</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AE30" t="inlineStr">
         <is>
@@ -4564,59 +4552,67 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Bradley Beal</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr"/>
+          <t>Khris Middleton</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Questionable</t>
+        </is>
+      </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="n">
-        <v>19.8</v>
+        <v>29.2</v>
       </c>
       <c r="G31" t="n">
-        <v>26</v>
+        <v>25.5</v>
       </c>
       <c r="H31" t="n">
-        <v>26.1</v>
+        <v>24</v>
       </c>
       <c r="I31" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="n">
-        <v>17</v>
+        <v>2</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="O31" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="P31" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="Q31" t="n">
-        <v>13</v>
-      </c>
-      <c r="R31" t="n">
-        <v>16</v>
+        <v>33</v>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -4624,7 +4620,7 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>1.2</v>
+        <v>-0.2</v>
       </c>
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr"/>
@@ -4635,28 +4631,24 @@
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z31" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="Z31" t="n">
+        <v>19</v>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB31" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AB31" t="n">
+        <v>17</v>
       </c>
       <c r="AC31" t="inlineStr">
         <is>
@@ -4702,15 +4694,19 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Bogdan Bogdanovic</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr"/>
+          <t>Terry Rozier</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Day-To-Day</t>
+        </is>
+      </c>
       <c r="D32" t="inlineStr">
         <is>
           <t>G</t>
@@ -4718,87 +4714,93 @@
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="n">
-        <v>32.4</v>
+        <v>28.4</v>
       </c>
       <c r="G32" t="n">
-        <v>25.6</v>
+        <v>24.3</v>
       </c>
       <c r="H32" t="n">
-        <v>21.3</v>
+        <v>27.7</v>
       </c>
       <c r="I32" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J32" t="n">
+        <v>5</v>
+      </c>
+      <c r="K32" t="n">
         <v>4</v>
       </c>
-      <c r="K32" t="n">
-        <v>5</v>
-      </c>
       <c r="L32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M32" t="n">
         <v>2</v>
       </c>
-      <c r="N32" t="n">
-        <v>18</v>
-      </c>
-      <c r="O32" t="n">
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P32" t="n">
         <v>6</v>
       </c>
-      <c r="P32" t="n">
-        <v>44</v>
-      </c>
       <c r="Q32" t="n">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="R32" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T32" t="n">
-        <v>-2.1</v>
+        <v>-1.7</v>
       </c>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
       <c r="W32" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="Z32" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AB32" t="n">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AD32" t="n">
-        <v>36</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AE32" t="inlineStr">
         <is>
@@ -4834,67 +4836,75 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Chet Holmgren</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr"/>
+          <t>Franz Wagner</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Questionable</t>
+        </is>
+      </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="n">
-        <v>17.4</v>
+        <v>29</v>
       </c>
       <c r="G33" t="n">
-        <v>25.1</v>
+        <v>24.2</v>
       </c>
       <c r="H33" t="n">
-        <v>29.9</v>
+        <v>28.6</v>
       </c>
       <c r="I33" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J33" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M33" t="n">
-        <v>2</v>
-      </c>
-      <c r="N33" t="n">
-        <v>12</v>
-      </c>
-      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P33" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>30</v>
+      </c>
+      <c r="R33" t="n">
         <v>34</v>
       </c>
-      <c r="P33" t="n">
-        <v>-2</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>38</v>
-      </c>
-      <c r="R33" t="n">
-        <v>5</v>
-      </c>
       <c r="S33" t="inlineStr">
         <is>
           <t>vs</t>
         </is>
       </c>
       <c r="T33" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr"/>
@@ -4905,32 +4915,34 @@
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="Z33" t="n">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AB33" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AD33" t="n">
-        <v>25</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AE33" t="inlineStr">
         <is>
@@ -4974,7 +4986,11 @@
           <t>James Harden</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr"/>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Questionable</t>
+        </is>
+      </c>
       <c r="D34" t="inlineStr">
         <is>
           <t>G</t>
@@ -4982,51 +4998,55 @@
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="n">
-        <v>19.4</v>
+        <v>23.8</v>
       </c>
       <c r="G34" t="n">
-        <v>24.9</v>
+        <v>24</v>
       </c>
       <c r="H34" t="n">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="I34" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J34" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K34" t="n">
         <v>4</v>
       </c>
       <c r="L34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
-      <c r="N34" t="n">
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P34" t="n">
+        <v>37</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>31</v>
+      </c>
+      <c r="R34" t="n">
         <v>19</v>
       </c>
-      <c r="O34" t="n">
-        <v>9</v>
-      </c>
-      <c r="P34" t="n">
-        <v>23</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>15</v>
-      </c>
-      <c r="R34" t="n">
-        <v>31</v>
-      </c>
       <c r="S34" t="inlineStr">
         <is>
           <t>vs</t>
         </is>
       </c>
       <c r="T34" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr"/>
@@ -5100,12 +5120,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Franz Wagner</t>
+          <t>Brandon Miller</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -5116,79 +5136,79 @@
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="n">
-        <v>24.6</v>
+        <v>31</v>
       </c>
       <c r="G35" t="n">
-        <v>23.4</v>
+        <v>23.9</v>
       </c>
       <c r="H35" t="n">
-        <v>28.6</v>
+        <v>21.8</v>
       </c>
       <c r="I35" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J35" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N35" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O35" t="n">
         <v>33</v>
       </c>
       <c r="P35" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="Q35" t="n">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="R35" t="n">
         <v>18</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>1.6</v>
+        <v>-2.2</v>
       </c>
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr"/>
       <c r="W35" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="Z35" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AB35" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC35" t="inlineStr">
         <is>
@@ -5234,67 +5254,67 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Brandon Miller</t>
+          <t>Bogdan Bogdanovic</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="n">
-        <v>24.6</v>
+        <v>15.6</v>
       </c>
       <c r="G36" t="n">
-        <v>21.3</v>
+        <v>23.4</v>
       </c>
       <c r="H36" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="I36" t="n">
         <v>14</v>
       </c>
       <c r="J36" t="n">
+        <v>4</v>
+      </c>
+      <c r="K36" t="n">
+        <v>5</v>
+      </c>
+      <c r="L36" t="n">
+        <v>3</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" t="n">
+        <v>30</v>
+      </c>
+      <c r="O36" t="n">
+        <v>-5</v>
+      </c>
+      <c r="P36" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>18</v>
+      </c>
+      <c r="R36" t="n">
         <v>6</v>
       </c>
-      <c r="K36" t="n">
-        <v>6</v>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="n">
-        <v>18</v>
-      </c>
-      <c r="O36" t="n">
-        <v>27</v>
-      </c>
-      <c r="P36" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>9</v>
-      </c>
-      <c r="R36" t="n">
-        <v>44</v>
-      </c>
       <c r="S36" t="inlineStr">
         <is>
           <t>@</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>-1.9</v>
+        <v>-1.7</v>
       </c>
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr"/>
@@ -5305,7 +5325,7 @@
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
@@ -5314,7 +5334,7 @@
         </is>
       </c>
       <c r="Z36" t="n">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
@@ -5322,17 +5342,15 @@
         </is>
       </c>
       <c r="AB36" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD36" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AD36" t="n">
+        <v>36</v>
       </c>
       <c r="AE36" t="inlineStr">
         <is>
@@ -5368,59 +5386,63 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Russell Westbrook</t>
+          <t>Andrew Wiggins</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="n">
-        <v>17.4</v>
+        <v>18</v>
       </c>
       <c r="G37" t="n">
-        <v>13.7</v>
+        <v>22.3</v>
       </c>
       <c r="H37" t="n">
-        <v>18.7</v>
+        <v>18.5</v>
       </c>
       <c r="I37" t="n">
+        <v>13</v>
+      </c>
+      <c r="J37" t="n">
         <v>6</v>
       </c>
-      <c r="J37" t="n">
-        <v>2</v>
-      </c>
       <c r="K37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N37" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="O37" t="n">
-        <v>25</v>
-      </c>
-      <c r="P37" t="n">
-        <v>23</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>9</v>
+        <v>27</v>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="R37" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
@@ -5428,7 +5450,7 @@
         </is>
       </c>
       <c r="T37" t="n">
-        <v>0.7</v>
+        <v>-1.1</v>
       </c>
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr"/>
@@ -5439,26 +5461,24 @@
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="Z37" t="n">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AB37" t="n">
+        <v>25</v>
       </c>
       <c r="AC37" t="inlineStr">
         <is>
@@ -5504,19 +5524,15 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Trae Young</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Out</t>
-        </is>
-      </c>
+          <t>Russell Westbrook</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
           <t>G</t>
@@ -5524,72 +5540,64 @@
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="n">
-        <v>25.4</v>
+        <v>27</v>
       </c>
       <c r="G38" t="n">
-        <v>35</v>
+        <v>17.1</v>
       </c>
       <c r="H38" t="n">
-        <v>37.6</v>
+        <v>19.2</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="O38" t="n">
+        <v>40</v>
+      </c>
+      <c r="P38" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>28</v>
+      </c>
+      <c r="R38" t="n">
+        <v>24</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T38" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr"/>
       <c r="W38" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
@@ -5598,23 +5606,27 @@
         </is>
       </c>
       <c r="Z38" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AB38" t="n">
-        <v>4</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AD38" t="n">
-        <v>64</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AE38" t="inlineStr">
         <is>
@@ -5650,53 +5662,47 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Alperen Sengun</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Out</t>
-        </is>
-      </c>
+          <t>Gordon Hayward</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="n">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="G39" t="n">
-        <v>34.2</v>
+        <v>10.4</v>
       </c>
       <c r="H39" t="n">
-        <v>37.4</v>
+        <v>16.5</v>
       </c>
       <c r="I39" t="n">
+        <v>13</v>
+      </c>
+      <c r="J39" t="n">
+        <v>11</v>
+      </c>
+      <c r="K39" t="n">
         <v>2</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>1</v>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="N39" t="n">
+        <v>24</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -5708,10 +5714,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="Q39" t="n">
+        <v>12</v>
       </c>
       <c r="R39" t="inlineStr">
         <is>
@@ -5720,22 +5724,22 @@
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>-3.2</v>
+        <v>1.3</v>
       </c>
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr"/>
       <c r="W39" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
@@ -5744,7 +5748,7 @@
         </is>
       </c>
       <c r="Z39" t="n">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
@@ -5752,7 +5756,7 @@
         </is>
       </c>
       <c r="AB39" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AC39" t="inlineStr">
         <is>
@@ -5798,12 +5802,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Kawhi Leonard</t>
+          <t>Alperen Sengun</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -5813,33 +5817,33 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="n">
-        <v>34.6</v>
+        <v>44</v>
       </c>
       <c r="G40" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="H40" t="n">
         <v>37.4</v>
       </c>
       <c r="I40" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -5851,50 +5855,56 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P40" t="n">
-        <v>28</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>53</v>
-      </c>
-      <c r="R40" t="n">
-        <v>26</v>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>-2.5</v>
+        <v>-3.2</v>
       </c>
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr"/>
       <c r="W40" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="Z40" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AB40" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="AC40" t="inlineStr">
         <is>
@@ -5940,12 +5950,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Kyle Kuzma</t>
+          <t>Kawhi Leonard</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -5960,31 +5970,33 @@
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="n">
-        <v>27.2</v>
+        <v>34.6</v>
       </c>
       <c r="G41" t="n">
-        <v>34</v>
+        <v>34.1</v>
       </c>
       <c r="H41" t="n">
-        <v>29.9</v>
+        <v>37.4</v>
       </c>
       <c r="I41" t="n">
         <v>10</v>
       </c>
       <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
         <v>3</v>
       </c>
-      <c r="K41" t="n">
-        <v>1</v>
-      </c>
       <c r="L41" t="n">
+        <v>5</v>
+      </c>
+      <c r="M41" t="n">
         <v>2</v>
       </c>
-      <c r="M41" t="n">
-        <v>4</v>
-      </c>
-      <c r="N41" t="n">
-        <v>28</v>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -5996,30 +6008,34 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Q41" t="n">
-        <v>1</v>
-      </c>
-      <c r="R41" t="n">
-        <v>43</v>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T41" t="n">
-        <v>0.8</v>
+        <v>-2.5</v>
       </c>
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
@@ -6028,7 +6044,7 @@
         </is>
       </c>
       <c r="Z41" t="n">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
@@ -6036,7 +6052,7 @@
         </is>
       </c>
       <c r="AB41" t="n">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="AC41" t="inlineStr">
         <is>
@@ -6082,12 +6098,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Cade Cunningham</t>
+          <t>Kyle Kuzma</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -6097,47 +6113,51 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="n">
-        <v>39.2</v>
+        <v>27.2</v>
       </c>
       <c r="G42" t="n">
-        <v>33.5</v>
+        <v>34</v>
       </c>
       <c r="H42" t="n">
-        <v>32.1</v>
+        <v>29.9</v>
       </c>
       <c r="I42" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J42" t="n">
+        <v>3</v>
+      </c>
+      <c r="K42" t="n">
         <v>1</v>
       </c>
-      <c r="K42" t="n">
-        <v>4</v>
-      </c>
       <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="n">
         <v>2</v>
       </c>
-      <c r="M42" t="n">
-        <v>4</v>
-      </c>
       <c r="N42" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="O42" t="n">
-        <v>59</v>
-      </c>
-      <c r="P42" t="n">
-        <v>44</v>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="Q42" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="R42" t="inlineStr">
         <is>
@@ -6150,7 +6170,7 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>-1.6</v>
+        <v>0.8</v>
       </c>
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr"/>
@@ -6161,28 +6181,24 @@
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z42" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="Z42" t="n">
+        <v>24</v>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB42" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AB42" t="n">
+        <v>31</v>
       </c>
       <c r="AC42" t="inlineStr">
         <is>
@@ -6228,12 +6244,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Scottie Barnes</t>
+          <t>Cade Cunningham</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -6243,33 +6259,33 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="n">
-        <v>33.2</v>
+        <v>39.2</v>
       </c>
       <c r="G43" t="n">
-        <v>33.1</v>
+        <v>33.5</v>
       </c>
       <c r="H43" t="n">
-        <v>34.1</v>
+        <v>32.1</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -6302,7 +6318,7 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>-2.3</v>
+        <v>-1.6</v>
       </c>
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr"/>
@@ -6313,24 +6329,28 @@
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="Z43" t="n">
-        <v>30</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AB43" t="n">
-        <v>16</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AC43" t="inlineStr">
         <is>
@@ -6376,12 +6396,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Jamal Murray</t>
+          <t>Scottie Barnes</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -6391,33 +6411,33 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="n">
-        <v>30.4</v>
+        <v>33.2</v>
       </c>
       <c r="G44" t="n">
-        <v>32.8</v>
+        <v>33.1</v>
       </c>
       <c r="H44" t="n">
-        <v>31.7</v>
+        <v>34.1</v>
       </c>
       <c r="I44" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -6450,7 +6470,7 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>-1.1</v>
+        <v>-2.3</v>
       </c>
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr"/>
@@ -6461,7 +6481,7 @@
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
@@ -6470,15 +6490,15 @@
         </is>
       </c>
       <c r="Z44" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AB44" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="AC44" t="inlineStr">
         <is>
@@ -6553,36 +6573,42 @@
         <v>30.7</v>
       </c>
       <c r="I45" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K45" t="n">
         <v>2</v>
       </c>
       <c r="L45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M45" t="n">
         <v>2</v>
       </c>
-      <c r="N45" t="n">
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R45" t="n">
         <v>49</v>
-      </c>
-      <c r="O45" t="n">
-        <v>66</v>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q45" t="n">
-        <v>28</v>
-      </c>
-      <c r="R45" t="n">
-        <v>10</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -6720,11 +6746,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Q46" t="n">
-        <v>35</v>
-      </c>
-      <c r="R46" t="n">
-        <v>56</v>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -6956,12 +6986,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Jonathan Kuminga</t>
+          <t>Jalen Johnson</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -6976,81 +7006,73 @@
       </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="n">
-        <v>24.8</v>
+        <v>28.6</v>
       </c>
       <c r="G48" t="n">
-        <v>29.9</v>
+        <v>29.7</v>
       </c>
       <c r="H48" t="n">
-        <v>24.6</v>
+        <v>29</v>
       </c>
       <c r="I48" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K48" t="n">
         <v>1</v>
       </c>
       <c r="L48" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q48" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="O48" t="n">
+        <v>30</v>
+      </c>
+      <c r="P48" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>18</v>
+      </c>
+      <c r="R48" t="n">
+        <v>66</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T48" t="n">
-        <v>0.2</v>
+        <v>-2</v>
       </c>
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr"/>
       <c r="W48" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="Z48" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
@@ -7058,17 +7080,15 @@
         </is>
       </c>
       <c r="AB48" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AC48" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD48" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AD48" t="n">
+        <v>35</v>
       </c>
       <c r="AE48" t="inlineStr">
         <is>
@@ -7133,16 +7153,16 @@
         <v>32.2</v>
       </c>
       <c r="I49" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K49" t="n">
         <v>2</v>
       </c>
       <c r="L49" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
@@ -7242,6 +7262,154 @@
         </is>
       </c>
       <c r="AJ49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Jerami Grant</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Out</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="n">
+        <v>21</v>
+      </c>
+      <c r="G50" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="H50" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="T50" t="n">
+        <v>-4.1</v>
+      </c>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="Y50" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="Z50" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA50" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AB50" t="n">
+        <v>58</v>
+      </c>
+      <c r="AC50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AI50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ50" t="inlineStr">
         <is>
           <t>-</t>
         </is>
